--- a/biology/Zoologie/Conure_à_cape_noire/Conure_à_cape_noire.xlsx
+++ b/biology/Zoologie/Conure_à_cape_noire/Conure_à_cape_noire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Conure_%C3%A0_cape_noire</t>
+          <t>Conure_à_cape_noire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pyrrhura rupicola
 La Conure à cape noire (Pyrrhura rupicola) est une espèce d'oiseau appartenant au groupe des conures et à la famille des Psittacidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Conure_%C3%A0_cape_noire</t>
+          <t>Conure_à_cape_noire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau est proche de la Conure de Souancé. Il mesure environ 25 cm.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Conure_%C3%A0_cape_noire</t>
+          <t>Conure_à_cape_noire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La Conure à cape noire est représentée par deux sous-espèces :
 rupicola ;
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Conure_%C3%A0_cape_noire</t>
+          <t>Conure_à_cape_noire</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau peuple le bassin de l'Amazone.
 </t>
